--- a/bin/results-c++.xlsx
+++ b/bin/results-c++.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EMS-GT" sheetId="1" r:id="rId1"/>
     <sheet name="qPMS9" sheetId="2" r:id="rId2"/>
+    <sheet name="PMS8" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>9,2</t>
   </si>
@@ -35,6 +36,12 @@
   </si>
   <si>
     <t>17,6</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>15,4</t>
   </si>
 </sst>
 </file>
@@ -83,8 +90,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -119,7 +128,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -135,6 +144,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -150,6 +160,7 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1451,7 +1462,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1464,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1907,6 +1917,405 @@
       <c r="F24">
         <f t="shared" si="0"/>
         <v>119.70825000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2">
+        <v>0.748</v>
+      </c>
+      <c r="C2">
+        <v>1.669</v>
+      </c>
+      <c r="D2">
+        <v>5.7089999999999996</v>
+      </c>
+      <c r="E2">
+        <v>43.741999999999997</v>
+      </c>
+      <c r="F2">
+        <v>254.374</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="C3">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="D3">
+        <v>7.3319999999999999</v>
+      </c>
+      <c r="E3">
+        <v>42.962000000000003</v>
+      </c>
+      <c r="F3">
+        <v>239.78800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="C4">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="D4">
+        <v>7.0510000000000002</v>
+      </c>
+      <c r="E4">
+        <v>41.853999999999999</v>
+      </c>
+      <c r="F4">
+        <v>264.32799999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="C5">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="D5">
+        <v>6.6459999999999999</v>
+      </c>
+      <c r="E5">
+        <v>40.139000000000003</v>
+      </c>
+      <c r="F5">
+        <v>247.40100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="C6">
+        <v>1.357</v>
+      </c>
+      <c r="D6">
+        <v>6.4729999999999999</v>
+      </c>
+      <c r="E6">
+        <v>37.813000000000002</v>
+      </c>
+      <c r="F6">
+        <v>250.39699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="C7">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="D7">
+        <v>6.4420000000000002</v>
+      </c>
+      <c r="E7">
+        <v>41.323</v>
+      </c>
+      <c r="F7">
+        <v>233.89099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>0.748</v>
+      </c>
+      <c r="C8">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="D8">
+        <v>5.99</v>
+      </c>
+      <c r="E8">
+        <v>41.417000000000002</v>
+      </c>
+      <c r="F8">
+        <v>284.71600000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C9">
+        <v>1.373</v>
+      </c>
+      <c r="D9">
+        <v>6.1449999999999996</v>
+      </c>
+      <c r="E9">
+        <v>41.48</v>
+      </c>
+      <c r="F9">
+        <v>250.24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="C10">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="D10">
+        <v>5.4749999999999996</v>
+      </c>
+      <c r="E10">
+        <v>40.262999999999998</v>
+      </c>
+      <c r="F10">
+        <v>246.465</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="C11">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="D11">
+        <v>5.21</v>
+      </c>
+      <c r="E11">
+        <v>38.671999999999997</v>
+      </c>
+      <c r="F11">
+        <v>287.85199999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C12">
+        <v>1.903</v>
+      </c>
+      <c r="D12">
+        <v>6.5350000000000001</v>
+      </c>
+      <c r="E12">
+        <v>36.145000000000003</v>
+      </c>
+      <c r="F12">
+        <v>244.93600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="C13">
+        <v>1.59</v>
+      </c>
+      <c r="D13">
+        <v>6.6289999999999996</v>
+      </c>
+      <c r="E13">
+        <v>39.529000000000003</v>
+      </c>
+      <c r="F13">
+        <v>284.98200000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="C14">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="D14">
+        <v>6.4269999999999996</v>
+      </c>
+      <c r="E14">
+        <v>38.156999999999996</v>
+      </c>
+      <c r="F14">
+        <v>268.49299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C15">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="D15">
+        <v>6.4729999999999999</v>
+      </c>
+      <c r="E15">
+        <v>38.033000000000001</v>
+      </c>
+      <c r="F15">
+        <v>228.65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="C16">
+        <v>1.528</v>
+      </c>
+      <c r="D16">
+        <v>6.9880000000000004</v>
+      </c>
+      <c r="E16">
+        <v>40.981000000000002</v>
+      </c>
+      <c r="F16">
+        <v>246.012</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="C17">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="D17">
+        <v>5.2720000000000002</v>
+      </c>
+      <c r="E17">
+        <v>38.780999999999999</v>
+      </c>
+      <c r="F17">
+        <v>261.12900000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="C18">
+        <v>1.575</v>
+      </c>
+      <c r="D18">
+        <v>6.7229999999999999</v>
+      </c>
+      <c r="E18">
+        <v>42.167000000000002</v>
+      </c>
+      <c r="F18">
+        <v>256.91699999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="C19">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="D19">
+        <v>5.944</v>
+      </c>
+      <c r="E19">
+        <v>37.875999999999998</v>
+      </c>
+      <c r="F19">
+        <v>258.63400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="C20">
+        <v>1.778</v>
+      </c>
+      <c r="D20">
+        <v>6.8319999999999999</v>
+      </c>
+      <c r="E20">
+        <v>40.652999999999999</v>
+      </c>
+      <c r="F20">
+        <v>273.45299999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>0.748</v>
+      </c>
+      <c r="C21">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="D21">
+        <v>6.2859999999999996</v>
+      </c>
+      <c r="E21">
+        <v>37.906999999999996</v>
+      </c>
+      <c r="F21">
+        <v>279.28800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <f>AVERAGE(B2:B21)</f>
+        <v>0.75659999999999994</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C2:C21)</f>
+        <v>1.6194999999999999</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(D2:D21)</f>
+        <v>6.3290999999999995</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(E2:E21)</f>
+        <v>39.994700000000002</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F2:F21)</f>
+        <v>258.09730000000002</v>
       </c>
     </row>
   </sheetData>
